--- a/data/output/Pedido_Semana_14_2026-02-03_semillas.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_semillas.xlsx
@@ -812,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>44.85</v>
@@ -1142,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="4" t="n">
         <v>5.49</v>
@@ -1472,10 +1472,10 @@
         <v>2</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="4" t="n">
         <v>23.96</v>
@@ -2000,10 +2000,10 @@
         <v>3</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="4" t="n">
         <v>69.90000000000001</v>
@@ -2132,10 +2132,10 @@
         <v>2</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="4" t="n">
         <v>79.95999999999999</v>
@@ -2198,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="4" t="n">
         <v>1.79</v>
@@ -2396,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="4" t="n">
         <v>3.58</v>
@@ -2462,10 +2462,10 @@
         <v>2</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="4" t="n">
         <v>10.74</v>
@@ -2726,10 +2726,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>1.79</v>
@@ -2792,10 +2792,10 @@
         <v>2</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>7.16</v>
@@ -2858,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="4" t="n">
         <v>1.79</v>
@@ -3122,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
         <v>1.79</v>
@@ -3584,10 +3584,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>5.37</v>
@@ -3650,10 +3650,10 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1.79</v>
@@ -5102,10 +5102,10 @@
         <v>1</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="4" t="n">
         <v>1.78</v>
@@ -5366,10 +5366,10 @@
         <v>2</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N74" s="4" t="n">
         <v>10.74</v>
@@ -5828,10 +5828,10 @@
         <v>3</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81" s="4" t="n">
         <v>16.11</v>
@@ -5894,10 +5894,10 @@
         <v>2</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" s="4" t="n">
         <v>10.74</v>
@@ -6092,10 +6092,10 @@
         <v>3</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N85" s="4" t="n">
         <v>69.65000000000001</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="C88" s="8" t="n">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89">
@@ -6243,7 +6243,7 @@
         </is>
       </c>
       <c r="C99" s="8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_14_2026-02-03_semillas.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_semillas.xlsx
@@ -812,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>44.85</v>
@@ -1142,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
         <v>5.49</v>
@@ -1472,10 +1472,10 @@
         <v>2</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4" t="n">
         <v>23.96</v>
@@ -2000,10 +2000,10 @@
         <v>3</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
         <v>69.90000000000001</v>
@@ -2132,10 +2132,10 @@
         <v>2</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
         <v>79.95999999999999</v>
@@ -2198,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
         <v>1.79</v>
@@ -2396,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
         <v>3.58</v>
@@ -2462,10 +2462,10 @@
         <v>2</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
         <v>10.74</v>
@@ -2726,10 +2726,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>1.79</v>
@@ -2792,10 +2792,10 @@
         <v>2</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>7.16</v>
@@ -2858,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
         <v>1.79</v>
@@ -3122,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="4" t="n">
         <v>1.79</v>
@@ -3584,10 +3584,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>5.37</v>
@@ -3650,10 +3650,10 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1.79</v>
@@ -5102,10 +5102,10 @@
         <v>1</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" s="4" t="n">
         <v>1.78</v>
@@ -5366,10 +5366,10 @@
         <v>2</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N74" s="4" t="n">
         <v>10.74</v>
@@ -5828,10 +5828,10 @@
         <v>3</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N81" s="4" t="n">
         <v>16.11</v>
@@ -5894,10 +5894,10 @@
         <v>2</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" s="4" t="n">
         <v>10.74</v>
@@ -6092,10 +6092,10 @@
         <v>3</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N85" s="4" t="n">
         <v>69.65000000000001</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="C88" s="8" t="n">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89">
@@ -6243,7 +6243,7 @@
         </is>
       </c>
       <c r="C99" s="8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
